--- a/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB218A2C-68EC-4060-8616-A87449E89138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B86DEA-8EBA-4822-9903-E6CF73B81D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4785" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="9000" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -406,104 +406,123 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>task_judge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご褒美デー(リマインダー)</t>
+    <rPh sb="1" eb="3">
+      <t>ホウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景画像</t>
+    <rPh sb="0" eb="4">
+      <t>ハイケイガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応援画像&amp;メッセージ</t>
+    <rPh sb="0" eb="4">
+      <t>オウエンガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタムセットリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モチベーションアップタスク管理アプリ「Forza」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPメモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top_memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topメモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRUE or FALSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン日数テーブル</t>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク達成数テーブル</t>
+    <rPh sb="3" eb="6">
+      <t>タッセイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_achievement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>達成判定</t>
     <rPh sb="0" eb="2">
       <t>タッセイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>task_judge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ご褒美デー(リマインダー)</t>
-    <rPh sb="1" eb="3">
-      <t>ホウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイコン画像</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背景画像</t>
-    <rPh sb="0" eb="4">
-      <t>ハイケイガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>応援画像&amp;メッセージ</t>
-    <rPh sb="0" eb="4">
-      <t>オウエンガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムセットリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モチベーションアップタスク管理アプリ「Forza」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルパス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOPメモ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>top_memo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>topメモ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>優先度</t>
-    <rPh sb="0" eb="3">
-      <t>ユウセンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TRUE or FALSE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1018,8 +1037,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1041,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1201,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
@@ -1215,18 +1234,30 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -1456,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1612,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -1957,7 +1988,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1983,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2259,10 +2290,10 @@
         <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2281,10 +2312,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>29</v>
@@ -2307,13 +2338,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2321,7 +2352,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -2560,7 +2591,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2568,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3099,7 +3130,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3107,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3311,7 +3342,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3638,7 +3669,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3646,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3819,7 +3850,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4156,7 +4187,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4164,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4338,7 +4369,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4657,7 +4688,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4675,7 +4706,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4683,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4872,10 +4903,10 @@
         <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5190,7 +5221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB2D968-0FEE-400E-BFF5-8B74048F497F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -5209,7 +5240,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5217,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -5374,10 +5405,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>

--- a/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B86DEA-8EBA-4822-9903-E6CF73B81D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00BD1F-4FCD-474D-BEA3-484890CE26B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="9000" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,8 @@
     <sheet name="icon_images" sheetId="11" r:id="rId7"/>
     <sheet name="remind_dates" sheetId="12" r:id="rId8"/>
     <sheet name="top_memos" sheetId="13" r:id="rId9"/>
+    <sheet name="login_days" sheetId="14" r:id="rId10"/>
+    <sheet name="task_achievements" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="96">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -522,6 +524,28 @@
     <t>達成判定</t>
     <rPh sb="0" eb="2">
       <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン日数</t>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_achievements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク達成数</t>
+    <rPh sb="3" eb="6">
+      <t>タッセイスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -651,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +716,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1065,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1085,13 +1112,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -1253,7 +1284,7 @@
         <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>23</v>
@@ -1453,6 +1484,1068 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D86076-BB6E-4418-9408-D079320C86E4}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44720</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>テーブル一覧!C16</f>
+        <v>ログイン日数テーブル</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>テーブル一覧!D16</f>
+        <v>login_days</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table login_days (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C12&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>login_day int (5),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63838D2F-0F82-4A98-8EC0-B70D22FA6FD6}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44720</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>テーブル一覧!C17</f>
+        <v>タスク達成数テーブル</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>テーブル一覧!D17</f>
+        <v>task_achievements</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14">
+        <v>44722</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table task_achievements (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C12&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>task_achievement int (5),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1461,7 +2554,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1523,7 +2616,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1538,7 +2633,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -1988,7 +3085,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,7 +3147,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -2065,7 +3164,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -2573,7 +3674,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2635,7 +3736,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -2650,7 +3753,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -3112,7 +4217,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3174,7 +4279,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -3189,7 +4296,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -3650,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF91272C-ED6D-4237-BCB2-4FA48400E919}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3713,7 +4822,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -3728,7 +4839,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -4169,7 +5282,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4231,7 +5344,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -4246,7 +5361,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -4688,7 +5805,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4750,7 +5867,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -4765,7 +5884,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -5222,7 +6343,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5284,7 +6405,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -5299,7 +6422,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>

--- a/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00BD1F-4FCD-474D-BEA3-484890CE26B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17D5FF-9C37-46B9-933E-FE6D8C1CBF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="9000" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1740" yWindow="345" windowWidth="15285" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="98">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>users</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ご褒美Day(リマインダー)</t>
     <rPh sb="1" eb="3">
       <t>ホウビ</t>
@@ -244,10 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task_lists</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスクタイトル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,10 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cheer_lists</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -359,15 +347,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>background_images</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>icon_images</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>remind_dates</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -396,10 +376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>customset_lists</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>customset_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -513,10 +489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login_days</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task_achievement</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -535,10 +507,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task_achievements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login_day</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -547,6 +515,46 @@
     <rPh sb="3" eb="6">
       <t>タッセイスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK_LISTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUSTOMSET_LISTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHEER_LISTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BACKGROUND_IMAGES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICON_IMAGES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REMIND_DAYS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOP_MEMO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOGIN_DAYS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK_ACHIEVEMENT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1065,7 +1073,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1146,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1164,7 +1172,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1176,10 +1184,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1194,7 +1202,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1206,10 +1214,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1221,10 +1229,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1236,10 +1244,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -1251,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
@@ -1266,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
@@ -1281,10 +1289,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>23</v>
@@ -1510,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1518,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1566,7 +1574,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D16</f>
-        <v>login_days</v>
+        <v>LOGIN_DAYS</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1610,7 +1618,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table login_days (</v>
+        <v>create table LOGIN_DAYS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1621,22 +1629,22 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1650,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1664,7 +1672,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1678,13 +1686,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1692,7 +1700,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2041,7 +2049,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2049,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2097,7 +2105,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D17</f>
-        <v>task_achievements</v>
+        <v>TASK_ACHIEVEMENT</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2141,7 +2149,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table task_achievements (</v>
+        <v>create table TASK_ACHIEVEMENT (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2152,22 +2160,22 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2181,13 +2189,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -2195,7 +2203,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2209,13 +2217,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2223,7 +2231,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2554,7 +2562,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2572,7 +2580,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2580,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2628,7 +2636,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D8</f>
-        <v>users</v>
+        <v>USERS</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2672,7 +2680,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table users (</v>
+        <v>create table USERS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2683,22 +2691,22 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2712,13 +2720,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -2726,7 +2734,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2740,13 +2748,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>40</v>
@@ -2754,7 +2762,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3111,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3159,7 +3167,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D9</f>
-        <v>task_lists</v>
+        <v>TASK_LISTS</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3203,7 +3211,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table task_lists (</v>
+        <v>create table TASK_LISTS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3214,26 +3222,26 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="e">
         <f>C15&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3245,13 +3253,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -3259,7 +3267,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3273,23 +3281,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3303,23 +3311,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3333,13 +3341,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
         <v>40</v>
@@ -3359,13 +3367,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3">
         <v>40</v>
@@ -3385,21 +3393,21 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3413,13 +3421,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
@@ -3439,13 +3447,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3453,7 +3461,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -3692,7 +3700,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3700,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3748,7 +3756,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D10</f>
-        <v>customset_lists</v>
+        <v>CUSTOMSET_LISTS</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3792,7 +3800,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table customset_lists (</v>
+        <v>create table CUSTOMSET_LISTS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3803,26 +3811,26 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3834,13 +3842,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -3848,7 +3856,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3862,23 +3870,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3892,13 +3900,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -4235,7 +4243,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4243,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4291,7 +4299,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D11</f>
-        <v>cheer_lists</v>
+        <v>CHEER_LISTS</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4335,7 +4343,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table cheer_lists (</v>
+        <v>create table CHEER_LISTS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4346,26 +4354,26 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4377,13 +4385,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -4391,7 +4399,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4405,23 +4413,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4435,13 +4443,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -4451,7 +4459,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4463,13 +4471,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -4778,7 +4786,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4786,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4834,7 +4842,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D12</f>
-        <v>background_images</v>
+        <v>BACKGROUND_IMAGES</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4878,7 +4886,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table background_images (</v>
+        <v>create table BACKGROUND_IMAGES (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4889,26 +4897,26 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4920,13 +4928,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -4934,7 +4942,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="e">
@@ -4947,13 +4955,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -4963,7 +4971,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5300,7 +5308,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5308,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -5356,7 +5364,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D13</f>
-        <v>icon_images</v>
+        <v>ICON_IMAGES</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5400,7 +5408,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table icon_images (</v>
+        <v>create table ICON_IMAGES (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -5411,26 +5419,26 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5442,13 +5450,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -5456,7 +5464,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5470,13 +5478,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -5486,7 +5494,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5823,7 +5831,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5831,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -5879,7 +5887,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D14</f>
-        <v>remind_dates</v>
+        <v>REMIND_DAYS</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5923,7 +5931,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table remind_dates (</v>
+        <v>create table REMIND_DAYS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -5934,26 +5942,26 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5965,13 +5973,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -5979,7 +5987,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="e">
@@ -5992,13 +6000,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>40</v>
@@ -6018,16 +6026,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6361,7 +6369,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -6369,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -6417,7 +6425,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>テーブル一覧!D15</f>
-        <v>top_memo</v>
+        <v>TOP_MEMO</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6461,7 +6469,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table top_memo (</v>
+        <v>create table TOP_MEMO (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -6472,26 +6480,26 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6503,13 +6511,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -6517,7 +6525,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="e">
@@ -6530,13 +6538,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>

--- a/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17D5FF-9C37-46B9-933E-FE6D8C1CBF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA052B-7A2D-4B50-8EE2-901C7A921502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="345" windowWidth="15285" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="345" windowWidth="15285" windowHeight="9420" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1692,11 +1692,9 @@
         <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -2030,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63838D2F-0F82-4A98-8EC0-B70D22FA6FD6}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3093,7 +3091,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3376,7 +3374,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3682,7 +3680,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4225,7 +4223,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4767,7 +4765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF91272C-ED6D-4237-BCB2-4FA48400E919}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5813,7 +5811,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6351,7 +6349,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA052B-7A2D-4B50-8EE2-901C7A921502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EFED26-41EA-48B4-AE14-553B95DCE34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="15285" windowHeight="9420" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="345" windowWidth="15285" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="remind_dates" sheetId="12" r:id="rId8"/>
     <sheet name="top_memos" sheetId="13" r:id="rId9"/>
     <sheet name="login_days" sheetId="14" r:id="rId10"/>
-    <sheet name="task_achievements" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="94">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -482,17 +481,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク達成数テーブル</t>
-    <rPh sb="3" eb="6">
-      <t>タッセイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>task_achievement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>達成判定</t>
     <rPh sb="0" eb="2">
       <t>タッセイ</t>
@@ -511,13 +499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク達成数</t>
-    <rPh sb="3" eb="6">
-      <t>タッセイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USERS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -551,10 +532,6 @@
   </si>
   <si>
     <t>LOGIN_DAYS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TASK_ACHIEVEMENT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,9 +701,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,7 +1131,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1172,7 +1146,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1187,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1202,7 +1176,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1217,7 +1191,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1232,7 +1206,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1247,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -1262,7 +1236,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
@@ -1277,7 +1251,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
@@ -1288,15 +1262,9 @@
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -1686,546 +1654,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63838D2F-0F82-4A98-8EC0-B70D22FA6FD6}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44720</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>テーブル一覧!C17</f>
-        <v>タスク達成数テーブル</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>テーブル一覧!D17</f>
-        <v>TASK_ACHIEVEMENT</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14">
-        <v>44722</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table TASK_ACHIEVEMENT (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C12&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>task_achievement int (5),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -3090,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6823F837-2093-40B0-9E8E-86134CE386ED}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3445,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>62</v>

--- a/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EFED26-41EA-48B4-AE14-553B95DCE34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798A187A-79BB-43A6-82F4-5F32586BFD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="15285" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="10230" windowHeight="9285" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="95">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task_title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -532,6 +528,14 @@
   </si>
   <si>
     <t>LOGIN_DAYS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクネーム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1046,7 +1050,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1069,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1128,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1146,7 +1150,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1158,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1176,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1188,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1203,10 +1207,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1221,7 +1225,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -1233,10 +1237,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
@@ -1248,10 +1252,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
@@ -1486,7 +1490,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1494,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1626,10 +1630,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -1654,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -2015,7 +2019,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2023,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2155,10 +2159,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -2183,10 +2187,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -2527,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6823F837-2093-40B0-9E8E-86134CE386ED}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2554,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2676,7 +2680,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="e">
         <f>C15&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2688,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -2716,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -2746,10 +2750,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>28</v>
@@ -2776,10 +2780,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>30</v>
@@ -2805,7 +2809,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>30</v>
@@ -2828,16 +2832,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2856,10 +2860,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>28</v>
@@ -2882,13 +2886,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2896,7 +2900,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -3135,7 +3139,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3143,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3265,7 +3269,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3277,10 +3281,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -3305,10 +3309,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -3335,10 +3339,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -3678,7 +3682,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3686,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3808,7 +3812,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3820,10 +3824,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -3848,10 +3852,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -3878,10 +3882,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -3894,7 +3898,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3906,10 +3910,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>30</v>
@@ -4221,7 +4225,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4229,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4351,7 +4355,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4363,10 +4367,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -4390,10 +4394,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -4406,7 +4410,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4743,7 +4747,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4751,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4873,7 +4877,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4885,10 +4889,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -4913,10 +4917,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -4929,7 +4933,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5266,7 +5270,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5274,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -5396,7 +5400,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5408,10 +5412,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -5435,10 +5439,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -5461,16 +5465,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5804,7 +5808,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5812,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -5934,7 +5938,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5946,10 +5950,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -5973,10 +5977,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>

--- a/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_DB定義書_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\外部設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798A187A-79BB-43A6-82F4-5F32586BFD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCACC9-7DA8-43E7-810D-E9AF4D2B43CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="10230" windowHeight="9285" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="-3885" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="remind_dates" sheetId="12" r:id="rId8"/>
     <sheet name="top_memos" sheetId="13" r:id="rId9"/>
     <sheet name="login_days" sheetId="14" r:id="rId10"/>
+    <sheet name="login_count" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="95">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -239,10 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスクタイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メモ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,6 +533,13 @@
   </si>
   <si>
     <t>タスクネーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン日</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1073,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1132,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1150,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1162,10 +1166,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1180,7 +1184,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1192,10 +1196,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1207,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1225,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -1237,10 +1241,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
@@ -1252,10 +1256,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
@@ -1490,7 +1494,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1498,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1630,10 +1634,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -1658,13 +1662,542 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667356D8-597B-483C-BC37-8227E79067CF}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44720</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>テーブル一覧!C16</f>
+        <v>ログイン日数テーブル</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>テーブル一覧!D16</f>
+        <v>LOGIN_DAYS</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44722</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table LOGIN_DAYS (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C12&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>date int (5),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2019,7 +2552,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2027,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2159,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -2187,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -2531,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6823F837-2093-40B0-9E8E-86134CE386ED}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2558,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2680,7 +3213,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" t="e">
         <f>C15&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2692,10 +3225,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -2720,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -2750,10 +3283,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>28</v>
@@ -2780,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>30</v>
@@ -2806,10 +3339,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>30</v>
@@ -2832,16 +3365,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2860,10 +3393,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>28</v>
@@ -2886,13 +3419,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2900,7 +3433,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -3139,7 +3672,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3147,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3269,7 +3802,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3281,10 +3814,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -3309,10 +3842,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -3339,10 +3872,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -3682,7 +4215,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3690,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3812,7 +4345,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3824,10 +4357,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -3852,10 +4385,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -3882,10 +4415,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -3898,7 +4431,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3910,10 +4443,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>30</v>
@@ -4225,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4233,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4355,7 +4888,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4367,10 +4900,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -4394,10 +4927,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -4410,7 +4943,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4747,7 +5280,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4755,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4877,7 +5410,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4889,10 +5422,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -4917,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -4933,7 +5466,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5270,7 +5803,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5278,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -5400,7 +5933,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5412,10 +5945,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -5439,10 +5972,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -5465,16 +5998,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5808,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5816,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -5938,7 +6471,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5950,10 +6483,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -5977,10 +6510,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
